--- a/Results/case2/0.7.xlsx
+++ b/Results/case2/0.7.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ice71\OneDrive\桌面\1118MDP\Results_new\case2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ice71\OneDrive\文件\GitHub\MDP\Results\case2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="11_9DFC7EAA81456A4FE72564B74F5DCE3A6745A5AB" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{CC15A570-7881-4EF9-A17E-ED6B8A18711C}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="11_9DFC7EAA81456A4FE72564B74F5DCE3A6745A5AB" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{738F1FA1-A3C6-401D-A895-8997A3A5BA99}"/>
   <bookViews>
-    <workbookView xWindow="27645" yWindow="1920" windowWidth="2040" windowHeight="585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -329,31 +329,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.88009999999999999</c:v>
+                  <c:v>0.88419999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.88580000000000003</c:v>
+                  <c:v>0.89659999999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.89890000000000003</c:v>
+                  <c:v>0.9093</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.90620000000000001</c:v>
+                  <c:v>0.92930000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.90349999999999997</c:v>
+                  <c:v>0.92179999999999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.90349999999999997</c:v>
+                  <c:v>0.92359999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.92120000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.92090000000000005</c:v>
+                  <c:v>0.92120000000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.92159999999999997</c:v>
+                  <c:v>0.92210000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1684,7 +1684,7 @@
   <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1753,58 +1753,58 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.88009999999999999</v>
+        <v>0.88419999999999999</v>
       </c>
       <c r="C2">
-        <v>0.46489999999999998</v>
+        <v>0.47149999999999997</v>
       </c>
       <c r="D2">
-        <v>0.88549999999999995</v>
+        <v>0.89659999999999995</v>
       </c>
       <c r="E2">
-        <v>0.4607</v>
+        <v>0.46639999999999998</v>
       </c>
       <c r="F2">
-        <v>0.89890000000000003</v>
+        <v>0.9093</v>
       </c>
       <c r="G2">
-        <v>0.4536</v>
+        <v>0.45619999999999999</v>
       </c>
       <c r="H2">
-        <v>0.90620000000000001</v>
+        <v>0.91339999999999999</v>
       </c>
       <c r="I2">
-        <v>0.44440000000000002</v>
+        <v>0.44779999999999998</v>
       </c>
       <c r="J2">
-        <v>0.90349999999999997</v>
+        <v>0.91449999999999998</v>
       </c>
       <c r="K2">
-        <v>0.44490000000000002</v>
+        <v>0.44800000000000001</v>
       </c>
       <c r="L2">
-        <v>0.90349999999999997</v>
+        <v>0.91659999999999997</v>
       </c>
       <c r="M2">
-        <v>0.44490000000000002</v>
+        <v>0.44800000000000001</v>
       </c>
       <c r="N2">
-        <v>0.90529999999999999</v>
+        <v>0.91710000000000003</v>
       </c>
       <c r="O2">
-        <v>0.44440000000000002</v>
+        <v>0.44779999999999998</v>
       </c>
       <c r="P2">
-        <v>0.90590000000000004</v>
+        <v>0.91710000000000003</v>
       </c>
       <c r="Q2">
-        <v>0.44450000000000001</v>
+        <v>0.44779999999999998</v>
       </c>
       <c r="R2">
-        <v>0.89529999999999998</v>
+        <v>0.90239999999999998</v>
       </c>
       <c r="S2">
-        <v>0.4335</v>
+        <v>0.44319999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -1812,58 +1812,58 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.78159999999999996</v>
+        <v>0.7944</v>
       </c>
       <c r="C3">
-        <v>0.63729999999999998</v>
+        <v>0.62450000000000006</v>
       </c>
       <c r="D3">
-        <v>0.71450000000000002</v>
+        <v>0.78269999999999995</v>
       </c>
       <c r="E3">
-        <v>0.57099999999999995</v>
+        <v>0.60070000000000001</v>
       </c>
       <c r="F3">
-        <v>0.75629999999999997</v>
+        <v>0.77590000000000003</v>
       </c>
       <c r="G3">
-        <v>0.59640000000000004</v>
+        <v>0.59009999999999996</v>
       </c>
       <c r="H3">
-        <v>0.63529999999999998</v>
+        <v>0.78500000000000003</v>
       </c>
       <c r="I3">
-        <v>0.29310000000000003</v>
+        <v>0.59819999999999995</v>
       </c>
       <c r="J3">
-        <v>0.63539999999999996</v>
+        <v>0.89890000000000003</v>
       </c>
       <c r="K3">
-        <v>0.2928</v>
+        <v>0.51400000000000001</v>
       </c>
       <c r="L3">
-        <v>0.63539999999999996</v>
+        <v>0.90259999999999996</v>
       </c>
       <c r="M3">
-        <v>0.2928</v>
+        <v>0.51090000000000002</v>
       </c>
       <c r="N3">
-        <v>0.92120000000000002</v>
+        <v>0.92090000000000005</v>
       </c>
       <c r="O3">
-        <v>0.41010000000000002</v>
+        <v>0.44990000000000002</v>
       </c>
       <c r="P3">
-        <v>0.92090000000000005</v>
+        <v>0.92069999999999996</v>
       </c>
       <c r="Q3">
-        <v>0.41049999999999998</v>
+        <v>0.4466</v>
       </c>
       <c r="R3">
-        <v>0.92159999999999997</v>
+        <v>0.92190000000000005</v>
       </c>
       <c r="S3">
-        <v>0.40839999999999999</v>
+        <v>0.48020000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -1871,58 +1871,58 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.86570000000000003</v>
+        <v>0.86599999999999999</v>
       </c>
       <c r="C4">
-        <v>0.42820000000000003</v>
+        <v>0.43759999999999999</v>
       </c>
       <c r="D4">
-        <v>0.86339999999999995</v>
+        <v>0.86880000000000002</v>
       </c>
       <c r="E4">
-        <v>0.4491</v>
+        <v>0.44450000000000001</v>
       </c>
       <c r="F4">
-        <v>0.86650000000000005</v>
+        <v>0.86939999999999995</v>
       </c>
       <c r="G4">
-        <v>0.44230000000000003</v>
+        <v>0.44209999999999999</v>
       </c>
       <c r="H4">
-        <v>0.63549999999999995</v>
+        <v>0.90610000000000002</v>
       </c>
       <c r="I4">
-        <v>0.29270000000000002</v>
+        <v>0.41249999999999998</v>
       </c>
       <c r="J4">
-        <v>0.63549999999999995</v>
+        <v>0.9103</v>
       </c>
       <c r="K4">
-        <v>0.29270000000000002</v>
+        <v>0.43880000000000002</v>
       </c>
       <c r="L4">
-        <v>0.63549999999999995</v>
+        <v>0.89990000000000003</v>
       </c>
       <c r="M4">
-        <v>0.29270000000000002</v>
+        <v>0.4521</v>
       </c>
       <c r="N4">
-        <v>0.91859999999999997</v>
+        <v>0.91990000000000005</v>
       </c>
       <c r="O4">
-        <v>0.40489999999999998</v>
+        <v>0.47620000000000001</v>
       </c>
       <c r="P4">
-        <v>0.91779999999999995</v>
+        <v>0.92069999999999996</v>
       </c>
       <c r="Q4">
-        <v>0.40939999999999999</v>
+        <v>0.4778</v>
       </c>
       <c r="R4">
-        <v>0.91769999999999996</v>
+        <v>0.92210000000000003</v>
       </c>
       <c r="S4">
-        <v>0.4093</v>
+        <v>0.47199999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -1930,58 +1930,58 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.8256</v>
+        <v>0.83530000000000004</v>
       </c>
       <c r="C5">
-        <v>0.54630000000000001</v>
+        <v>0.53159999999999996</v>
       </c>
       <c r="D5">
-        <v>0.88580000000000003</v>
+        <v>0.87190000000000001</v>
       </c>
       <c r="E5">
-        <v>0.45469999999999999</v>
+        <v>0.43440000000000001</v>
       </c>
       <c r="F5">
-        <v>0.87119999999999997</v>
+        <v>0.87549999999999994</v>
       </c>
       <c r="G5">
-        <v>0.44009999999999999</v>
+        <v>0.45369999999999999</v>
       </c>
       <c r="H5">
-        <v>0.63549999999999995</v>
+        <v>0.91220000000000001</v>
       </c>
       <c r="I5">
-        <v>0.29270000000000002</v>
+        <v>0.40760000000000002</v>
       </c>
       <c r="J5">
-        <v>0.63549999999999995</v>
+        <v>0.91410000000000002</v>
       </c>
       <c r="K5">
-        <v>0.29270000000000002</v>
+        <v>0.46629999999999999</v>
       </c>
       <c r="L5">
-        <v>0.63549999999999995</v>
+        <v>0.92359999999999998</v>
       </c>
       <c r="M5">
-        <v>0.29270000000000002</v>
+        <v>0.46529999999999999</v>
       </c>
       <c r="N5">
-        <v>0.91720000000000002</v>
+        <v>0.91969999999999996</v>
       </c>
       <c r="O5">
-        <v>0.40910000000000002</v>
+        <v>0.4698</v>
       </c>
       <c r="P5">
-        <v>0.91769999999999996</v>
+        <v>0.92120000000000002</v>
       </c>
       <c r="Q5">
-        <v>0.4093</v>
+        <v>0.47720000000000001</v>
       </c>
       <c r="R5">
-        <v>0.91769999999999996</v>
+        <v>0.91600000000000004</v>
       </c>
       <c r="S5">
-        <v>0.4093</v>
+        <v>0.42309999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -1989,58 +1989,58 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.72470000000000001</v>
+        <v>0.74770000000000003</v>
       </c>
       <c r="C6">
-        <v>0.60109999999999997</v>
+        <v>0.5867</v>
       </c>
       <c r="D6">
-        <v>0.87729999999999997</v>
+        <v>0.87139999999999995</v>
       </c>
       <c r="E6">
-        <v>0.47839999999999999</v>
+        <v>0.43509999999999999</v>
       </c>
       <c r="F6">
-        <v>0.87119999999999997</v>
+        <v>0.87370000000000003</v>
       </c>
       <c r="G6">
-        <v>0.43769999999999998</v>
+        <v>0.45340000000000003</v>
       </c>
       <c r="H6">
-        <v>0.63549999999999995</v>
+        <v>0.91210000000000002</v>
       </c>
       <c r="I6">
-        <v>0.29270000000000002</v>
+        <v>0.4214</v>
       </c>
       <c r="J6">
-        <v>0.63549999999999995</v>
+        <v>0.91890000000000005</v>
       </c>
       <c r="K6">
-        <v>0.29270000000000002</v>
+        <v>0.46820000000000001</v>
       </c>
       <c r="L6">
-        <v>0.63549999999999995</v>
+        <v>0.91949999999999998</v>
       </c>
       <c r="M6">
-        <v>0.29270000000000002</v>
+        <v>0.46579999999999999</v>
       </c>
       <c r="N6">
-        <v>0.91720000000000002</v>
+        <v>0.91979999999999995</v>
       </c>
       <c r="O6">
-        <v>0.40910000000000002</v>
+        <v>0.46970000000000001</v>
       </c>
       <c r="P6">
-        <v>0.91769999999999996</v>
+        <v>0.91990000000000005</v>
       </c>
       <c r="Q6">
-        <v>0.4093</v>
+        <v>0.47010000000000002</v>
       </c>
       <c r="R6">
-        <v>0.91769999999999996</v>
+        <v>0.91590000000000005</v>
       </c>
       <c r="S6">
-        <v>0.4093</v>
+        <v>0.42149999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -2048,58 +2048,58 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.73429999999999995</v>
+        <v>0.76180000000000003</v>
       </c>
       <c r="C7">
-        <v>0.62270000000000003</v>
+        <v>0.60499999999999998</v>
       </c>
       <c r="D7">
-        <v>0.87009999999999998</v>
+        <v>0.87250000000000005</v>
       </c>
       <c r="E7">
-        <v>0.43149999999999999</v>
+        <v>0.43030000000000002</v>
       </c>
       <c r="F7">
-        <v>0.87129999999999996</v>
+        <v>0.87350000000000005</v>
       </c>
       <c r="G7">
-        <v>0.44019999999999998</v>
+        <v>0.46110000000000001</v>
       </c>
       <c r="H7">
-        <v>0.63549999999999995</v>
+        <v>0.91459999999999997</v>
       </c>
       <c r="I7">
-        <v>0.29270000000000002</v>
+        <v>0.4783</v>
       </c>
       <c r="J7">
-        <v>0.63549999999999995</v>
+        <v>0.91930000000000001</v>
       </c>
       <c r="K7">
-        <v>0.29270000000000002</v>
+        <v>0.46739999999999998</v>
       </c>
       <c r="L7">
-        <v>0.63549999999999995</v>
+        <v>0.91749999999999998</v>
       </c>
       <c r="M7">
-        <v>0.29270000000000002</v>
+        <v>0.46460000000000001</v>
       </c>
       <c r="N7">
-        <v>0.91720000000000002</v>
+        <v>0.91859999999999997</v>
       </c>
       <c r="O7">
-        <v>0.40910000000000002</v>
+        <v>0.46899999999999997</v>
       </c>
       <c r="P7">
-        <v>0.91769999999999996</v>
+        <v>0.91979999999999995</v>
       </c>
       <c r="Q7">
-        <v>0.4093</v>
+        <v>0.47</v>
       </c>
       <c r="R7">
-        <v>0.91769999999999996</v>
+        <v>0.91590000000000005</v>
       </c>
       <c r="S7">
-        <v>0.4093</v>
+        <v>0.42149999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -2107,58 +2107,58 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.7258</v>
+        <v>0.76170000000000004</v>
       </c>
       <c r="C8">
-        <v>0.61199999999999999</v>
+        <v>0.60489999999999999</v>
       </c>
       <c r="D8">
-        <v>0.86990000000000001</v>
+        <v>0.87250000000000005</v>
       </c>
       <c r="E8">
-        <v>0.43159999999999998</v>
+        <v>0.43030000000000002</v>
       </c>
       <c r="F8">
-        <v>0.87060000000000004</v>
+        <v>0.87339999999999995</v>
       </c>
       <c r="G8">
-        <v>0.44019999999999998</v>
+        <v>0.46100000000000002</v>
       </c>
       <c r="H8">
-        <v>0.63549999999999995</v>
+        <v>0.90980000000000005</v>
       </c>
       <c r="I8">
-        <v>0.29270000000000002</v>
+        <v>0.4395</v>
       </c>
       <c r="J8">
-        <v>0.63549999999999995</v>
+        <v>0.92069999999999996</v>
       </c>
       <c r="K8">
-        <v>0.29270000000000002</v>
+        <v>0.46800000000000003</v>
       </c>
       <c r="L8">
-        <v>0.63549999999999995</v>
+        <v>0.91820000000000002</v>
       </c>
       <c r="M8">
-        <v>0.29270000000000002</v>
+        <v>0.4647</v>
       </c>
       <c r="N8">
-        <v>0.91720000000000002</v>
+        <v>0.92049999999999998</v>
       </c>
       <c r="O8">
-        <v>0.40910000000000002</v>
+        <v>0.47089999999999999</v>
       </c>
       <c r="P8">
-        <v>0.91769999999999996</v>
+        <v>0.91910000000000003</v>
       </c>
       <c r="Q8">
-        <v>0.4093</v>
+        <v>0.47149999999999997</v>
       </c>
       <c r="R8">
-        <v>0.91769999999999996</v>
+        <v>0.92190000000000005</v>
       </c>
       <c r="S8">
-        <v>0.4093</v>
+        <v>0.47070000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -2166,58 +2166,58 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.7258</v>
+        <v>0.76700000000000002</v>
       </c>
       <c r="C9">
-        <v>0.61199999999999999</v>
+        <v>0.63839999999999997</v>
       </c>
       <c r="D9">
-        <v>0.87080000000000002</v>
+        <v>0.85840000000000005</v>
       </c>
       <c r="E9">
-        <v>0.43030000000000002</v>
+        <v>0.43359999999999999</v>
       </c>
       <c r="F9">
-        <v>0.87060000000000004</v>
+        <v>0.87329999999999997</v>
       </c>
       <c r="G9">
-        <v>0.44019999999999998</v>
+        <v>0.46089999999999998</v>
       </c>
       <c r="H9">
-        <v>0.63549999999999995</v>
+        <v>0.92810000000000004</v>
       </c>
       <c r="I9">
-        <v>0.29270000000000002</v>
+        <v>0.41249999999999998</v>
       </c>
       <c r="J9">
-        <v>0.63549999999999995</v>
+        <v>0.91969999999999996</v>
       </c>
       <c r="K9">
-        <v>0.29270000000000002</v>
+        <v>0.46760000000000002</v>
       </c>
       <c r="L9">
-        <v>0.63549999999999995</v>
+        <v>0.9214</v>
       </c>
       <c r="M9">
-        <v>0.29270000000000002</v>
+        <v>0.46500000000000002</v>
       </c>
       <c r="N9">
-        <v>0.91720000000000002</v>
+        <v>0.91979999999999995</v>
       </c>
       <c r="O9">
-        <v>0.40910000000000002</v>
+        <v>0.46939999999999998</v>
       </c>
       <c r="P9">
-        <v>0.91769999999999996</v>
+        <v>0.91979999999999995</v>
       </c>
       <c r="Q9">
-        <v>0.4093</v>
+        <v>0.47</v>
       </c>
       <c r="R9">
-        <v>0.91769999999999996</v>
+        <v>0.91569999999999996</v>
       </c>
       <c r="S9">
-        <v>0.4093</v>
+        <v>0.42149999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -2225,58 +2225,58 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.72619999999999996</v>
+        <v>0.77210000000000001</v>
       </c>
       <c r="C10">
-        <v>0.61019999999999996</v>
+        <v>0.66710000000000003</v>
       </c>
       <c r="D10">
-        <v>0.87080000000000002</v>
+        <v>0.85829999999999995</v>
       </c>
       <c r="E10">
-        <v>0.43030000000000002</v>
+        <v>0.43359999999999999</v>
       </c>
       <c r="F10">
-        <v>0.87060000000000004</v>
+        <v>0.88380000000000003</v>
       </c>
       <c r="G10">
-        <v>0.44019999999999998</v>
+        <v>0.47220000000000001</v>
       </c>
       <c r="H10">
-        <v>0.63549999999999995</v>
+        <v>0.92820000000000003</v>
       </c>
       <c r="I10">
-        <v>0.29270000000000002</v>
+        <v>0.41249999999999998</v>
       </c>
       <c r="J10">
-        <v>0.63549999999999995</v>
+        <v>0.91959999999999997</v>
       </c>
       <c r="K10">
-        <v>0.29270000000000002</v>
+        <v>0.46800000000000003</v>
       </c>
       <c r="L10">
-        <v>0.63549999999999995</v>
+        <v>0.9204</v>
       </c>
       <c r="M10">
-        <v>0.29270000000000002</v>
+        <v>0.4647</v>
       </c>
       <c r="N10">
-        <v>0.91720000000000002</v>
+        <v>0.92090000000000005</v>
       </c>
       <c r="O10">
-        <v>0.40910000000000002</v>
+        <v>0.47</v>
       </c>
       <c r="P10">
-        <v>0.91769999999999996</v>
+        <v>0.9194</v>
       </c>
       <c r="Q10">
-        <v>0.4093</v>
+        <v>0.47149999999999997</v>
       </c>
       <c r="R10">
-        <v>0.91769999999999996</v>
+        <v>0.91590000000000005</v>
       </c>
       <c r="S10">
-        <v>0.4093</v>
+        <v>0.42149999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -2284,58 +2284,58 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.72670000000000001</v>
+        <v>0.77239999999999998</v>
       </c>
       <c r="C11">
-        <v>0.60960000000000003</v>
+        <v>0.68210000000000004</v>
       </c>
       <c r="D11">
-        <v>0.87080000000000002</v>
+        <v>0.85829999999999995</v>
       </c>
       <c r="E11">
-        <v>0.43030000000000002</v>
+        <v>0.43359999999999999</v>
       </c>
       <c r="F11">
-        <v>0.87060000000000004</v>
+        <v>0.87</v>
       </c>
       <c r="G11">
-        <v>0.44019999999999998</v>
+        <v>0.4597</v>
       </c>
       <c r="H11">
-        <v>0.63549999999999995</v>
+        <v>0.92820000000000003</v>
       </c>
       <c r="I11">
-        <v>0.29270000000000002</v>
+        <v>0.41249999999999998</v>
       </c>
       <c r="J11">
-        <v>0.63549999999999995</v>
+        <v>0.92030000000000001</v>
       </c>
       <c r="K11">
-        <v>0.29270000000000002</v>
+        <v>0.46839999999999998</v>
       </c>
       <c r="L11">
-        <v>0.63549999999999995</v>
+        <v>0.91820000000000002</v>
       </c>
       <c r="M11">
-        <v>0.29270000000000002</v>
+        <v>0.46489999999999998</v>
       </c>
       <c r="N11">
-        <v>0.91720000000000002</v>
+        <v>0.92120000000000002</v>
       </c>
       <c r="O11">
-        <v>0.40910000000000002</v>
+        <v>0.4698</v>
       </c>
       <c r="P11">
-        <v>0.91769999999999996</v>
+        <v>0.91979999999999995</v>
       </c>
       <c r="Q11">
-        <v>0.4093</v>
+        <v>0.47</v>
       </c>
       <c r="R11">
-        <v>0.91769999999999996</v>
+        <v>0.91590000000000005</v>
       </c>
       <c r="S11">
-        <v>0.4093</v>
+        <v>0.42149999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -2343,58 +2343,58 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.72670000000000001</v>
+        <v>0.77100000000000002</v>
       </c>
       <c r="C12">
-        <v>0.60960000000000003</v>
+        <v>0.68389999999999995</v>
       </c>
       <c r="D12">
-        <v>0.87080000000000002</v>
+        <v>0.85829999999999995</v>
       </c>
       <c r="E12">
-        <v>0.43030000000000002</v>
+        <v>0.43359999999999999</v>
       </c>
       <c r="F12">
-        <v>0.87060000000000004</v>
+        <v>0.88370000000000004</v>
       </c>
       <c r="G12">
-        <v>0.44019999999999998</v>
+        <v>0.47089999999999999</v>
       </c>
       <c r="H12">
-        <v>0.63549999999999995</v>
+        <v>0.92820000000000003</v>
       </c>
       <c r="I12">
-        <v>0.29270000000000002</v>
+        <v>0.41249999999999998</v>
       </c>
       <c r="J12">
-        <v>0.63549999999999995</v>
+        <v>0.92020000000000002</v>
       </c>
       <c r="K12">
-        <v>0.29270000000000002</v>
+        <v>0.46750000000000003</v>
       </c>
       <c r="L12">
-        <v>0.63549999999999995</v>
+        <v>0.92090000000000005</v>
       </c>
       <c r="M12">
-        <v>0.29270000000000002</v>
+        <v>0.46400000000000002</v>
       </c>
       <c r="N12">
-        <v>0.91720000000000002</v>
+        <v>0.92110000000000003</v>
       </c>
       <c r="O12">
-        <v>0.40910000000000002</v>
+        <v>0.46970000000000001</v>
       </c>
       <c r="P12">
-        <v>0.91769999999999996</v>
+        <v>0.92100000000000004</v>
       </c>
       <c r="Q12">
-        <v>0.4093</v>
+        <v>0.47739999999999999</v>
       </c>
       <c r="R12">
-        <v>0.91769999999999996</v>
+        <v>0.91590000000000005</v>
       </c>
       <c r="S12">
-        <v>0.4093</v>
+        <v>0.42149999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -2402,58 +2402,58 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.72670000000000001</v>
+        <v>0.76700000000000002</v>
       </c>
       <c r="C13">
-        <v>0.60960000000000003</v>
+        <v>0.59730000000000005</v>
       </c>
       <c r="D13">
-        <v>0.87080000000000002</v>
+        <v>0.85829999999999995</v>
       </c>
       <c r="E13">
-        <v>0.43030000000000002</v>
+        <v>0.43359999999999999</v>
       </c>
       <c r="F13">
-        <v>0.87060000000000004</v>
+        <v>0.88460000000000005</v>
       </c>
       <c r="G13">
-        <v>0.44019999999999998</v>
+        <v>0.47070000000000001</v>
       </c>
       <c r="H13">
-        <v>0.63549999999999995</v>
+        <v>0.92830000000000001</v>
       </c>
       <c r="I13">
-        <v>0.29270000000000002</v>
+        <v>0.41220000000000001</v>
       </c>
       <c r="J13">
-        <v>0.63549999999999995</v>
+        <v>0.92030000000000001</v>
       </c>
       <c r="K13">
-        <v>0.29270000000000002</v>
+        <v>0.46800000000000003</v>
       </c>
       <c r="L13">
-        <v>0.63549999999999995</v>
+        <v>0.92100000000000004</v>
       </c>
       <c r="M13">
-        <v>0.29270000000000002</v>
+        <v>0.4632</v>
       </c>
       <c r="N13">
-        <v>0.91720000000000002</v>
+        <v>0.92069999999999996</v>
       </c>
       <c r="O13">
-        <v>0.40910000000000002</v>
+        <v>0.46970000000000001</v>
       </c>
       <c r="P13">
-        <v>0.91769999999999996</v>
+        <v>0.92100000000000004</v>
       </c>
       <c r="Q13">
-        <v>0.4093</v>
+        <v>0.47560000000000002</v>
       </c>
       <c r="R13">
-        <v>0.91769999999999996</v>
+        <v>0.91590000000000005</v>
       </c>
       <c r="S13">
-        <v>0.4093</v>
+        <v>0.42149999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -2461,58 +2461,58 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>0.72670000000000001</v>
+        <v>0.76570000000000005</v>
       </c>
       <c r="C14">
-        <v>0.60960000000000003</v>
+        <v>0.59260000000000002</v>
       </c>
       <c r="D14">
-        <v>0.87080000000000002</v>
+        <v>0.85829999999999995</v>
       </c>
       <c r="E14">
-        <v>0.43030000000000002</v>
+        <v>0.43359999999999999</v>
       </c>
       <c r="F14">
-        <v>0.87229999999999996</v>
+        <v>0.88460000000000005</v>
       </c>
       <c r="G14">
-        <v>0.43490000000000001</v>
+        <v>0.47070000000000001</v>
       </c>
       <c r="H14">
-        <v>0.63549999999999995</v>
+        <v>0.92779999999999996</v>
       </c>
       <c r="I14">
-        <v>0.29270000000000002</v>
+        <v>0.41260000000000002</v>
       </c>
       <c r="J14">
-        <v>0.63549999999999995</v>
+        <v>0.92020000000000002</v>
       </c>
       <c r="K14">
-        <v>0.29270000000000002</v>
+        <v>0.46789999999999998</v>
       </c>
       <c r="L14">
-        <v>0.63549999999999995</v>
+        <v>0.91990000000000005</v>
       </c>
       <c r="M14">
-        <v>0.29270000000000002</v>
+        <v>0.45660000000000001</v>
       </c>
       <c r="N14">
-        <v>0.91720000000000002</v>
+        <v>0.92110000000000003</v>
       </c>
       <c r="O14">
-        <v>0.40910000000000002</v>
+        <v>0.46970000000000001</v>
       </c>
       <c r="P14">
-        <v>0.91769999999999996</v>
+        <v>0.92100000000000004</v>
       </c>
       <c r="Q14">
-        <v>0.4093</v>
+        <v>0.47560000000000002</v>
       </c>
       <c r="R14">
-        <v>0.91769999999999996</v>
+        <v>0.91590000000000005</v>
       </c>
       <c r="S14">
-        <v>0.4093</v>
+        <v>0.42149999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -2520,58 +2520,58 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>0.72670000000000001</v>
+        <v>0.76570000000000005</v>
       </c>
       <c r="C15">
-        <v>0.60960000000000003</v>
+        <v>0.59260000000000002</v>
       </c>
       <c r="D15">
-        <v>0.87080000000000002</v>
+        <v>0.85829999999999995</v>
       </c>
       <c r="E15">
-        <v>0.43030000000000002</v>
+        <v>0.43359999999999999</v>
       </c>
       <c r="F15">
-        <v>0.87150000000000005</v>
+        <v>0.88460000000000005</v>
       </c>
       <c r="G15">
-        <v>0.43719999999999998</v>
+        <v>0.47070000000000001</v>
       </c>
       <c r="H15">
-        <v>0.63549999999999995</v>
+        <v>0.92779999999999996</v>
       </c>
       <c r="I15">
-        <v>0.29270000000000002</v>
+        <v>0.41249999999999998</v>
       </c>
       <c r="J15">
-        <v>0.63549999999999995</v>
+        <v>0.92020000000000002</v>
       </c>
       <c r="K15">
-        <v>0.29270000000000002</v>
+        <v>0.46789999999999998</v>
       </c>
       <c r="L15">
-        <v>0.63549999999999995</v>
+        <v>0.91990000000000005</v>
       </c>
       <c r="M15">
-        <v>0.29270000000000002</v>
+        <v>0.45660000000000001</v>
       </c>
       <c r="N15">
-        <v>0.91720000000000002</v>
+        <v>0.91979999999999995</v>
       </c>
       <c r="O15">
-        <v>0.40910000000000002</v>
+        <v>0.46939999999999998</v>
       </c>
       <c r="P15">
-        <v>0.91769999999999996</v>
+        <v>0.92090000000000005</v>
       </c>
       <c r="Q15">
-        <v>0.4093</v>
+        <v>0.47699999999999998</v>
       </c>
       <c r="R15">
-        <v>0.91769999999999996</v>
+        <v>0.91590000000000005</v>
       </c>
       <c r="S15">
-        <v>0.4093</v>
+        <v>0.42149999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -2579,58 +2579,58 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>0.72670000000000001</v>
+        <v>0.76570000000000005</v>
       </c>
       <c r="C16">
-        <v>0.60960000000000003</v>
+        <v>0.59260000000000002</v>
       </c>
       <c r="D16">
-        <v>0.87080000000000002</v>
+        <v>0.85829999999999995</v>
       </c>
       <c r="E16">
-        <v>0.43030000000000002</v>
+        <v>0.43359999999999999</v>
       </c>
       <c r="F16">
-        <v>0.87229999999999996</v>
+        <v>0.88460000000000005</v>
       </c>
       <c r="G16">
-        <v>0.43490000000000001</v>
+        <v>0.46700000000000003</v>
       </c>
       <c r="H16">
-        <v>0.63549999999999995</v>
+        <v>0.92930000000000001</v>
       </c>
       <c r="I16">
-        <v>0.29270000000000002</v>
+        <v>0.41089999999999999</v>
       </c>
       <c r="J16">
-        <v>0.63549999999999995</v>
+        <v>0.92020000000000002</v>
       </c>
       <c r="K16">
-        <v>0.29270000000000002</v>
+        <v>0.46789999999999998</v>
       </c>
       <c r="L16">
-        <v>0.63549999999999995</v>
+        <v>0.91790000000000005</v>
       </c>
       <c r="M16">
-        <v>0.29270000000000002</v>
+        <v>0.45639999999999997</v>
       </c>
       <c r="N16">
-        <v>0.91720000000000002</v>
+        <v>0.92110000000000003</v>
       </c>
       <c r="O16">
-        <v>0.40910000000000002</v>
+        <v>0.46970000000000001</v>
       </c>
       <c r="P16">
-        <v>0.91769999999999996</v>
+        <v>0.92100000000000004</v>
       </c>
       <c r="Q16">
-        <v>0.4093</v>
+        <v>0.47560000000000002</v>
       </c>
       <c r="R16">
-        <v>0.91769999999999996</v>
+        <v>0.91590000000000005</v>
       </c>
       <c r="S16">
-        <v>0.4093</v>
+        <v>0.42149999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
@@ -2638,58 +2638,58 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>0.72670000000000001</v>
+        <v>0.76570000000000005</v>
       </c>
       <c r="C17">
-        <v>0.60960000000000003</v>
+        <v>0.59260000000000002</v>
       </c>
       <c r="D17">
-        <v>0.87080000000000002</v>
+        <v>0.85829999999999995</v>
       </c>
       <c r="E17">
-        <v>0.43030000000000002</v>
+        <v>0.43359999999999999</v>
       </c>
       <c r="F17">
-        <v>0.87229999999999996</v>
+        <v>0.88370000000000004</v>
       </c>
       <c r="G17">
-        <v>0.43490000000000001</v>
+        <v>0.47399999999999998</v>
       </c>
       <c r="H17">
-        <v>0.63549999999999995</v>
+        <v>0.89459999999999995</v>
       </c>
       <c r="I17">
-        <v>0.29270000000000002</v>
+        <v>0.44829999999999998</v>
       </c>
       <c r="J17">
-        <v>0.63549999999999995</v>
+        <v>0.92149999999999999</v>
       </c>
       <c r="K17">
-        <v>0.29270000000000002</v>
+        <v>0.4677</v>
       </c>
       <c r="L17">
-        <v>0.63549999999999995</v>
+        <v>0.92100000000000004</v>
       </c>
       <c r="M17">
-        <v>0.29270000000000002</v>
+        <v>0.4632</v>
       </c>
       <c r="N17">
-        <v>0.91720000000000002</v>
+        <v>0.92110000000000003</v>
       </c>
       <c r="O17">
-        <v>0.40910000000000002</v>
+        <v>0.46970000000000001</v>
       </c>
       <c r="P17">
-        <v>0.91769999999999996</v>
+        <v>0.92100000000000004</v>
       </c>
       <c r="Q17">
-        <v>0.4093</v>
+        <v>0.47560000000000002</v>
       </c>
       <c r="R17">
-        <v>0.91769999999999996</v>
+        <v>0.91590000000000005</v>
       </c>
       <c r="S17">
-        <v>0.4093</v>
+        <v>0.42149999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
@@ -2697,58 +2697,58 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>0.72670000000000001</v>
+        <v>0.76570000000000005</v>
       </c>
       <c r="C18">
-        <v>0.60960000000000003</v>
+        <v>0.59260000000000002</v>
       </c>
       <c r="D18">
-        <v>0.87080000000000002</v>
+        <v>0.85829999999999995</v>
       </c>
       <c r="E18">
-        <v>0.43030000000000002</v>
+        <v>0.43359999999999999</v>
       </c>
       <c r="F18">
-        <v>0.87229999999999996</v>
+        <v>0.88580000000000003</v>
       </c>
       <c r="G18">
-        <v>0.43490000000000001</v>
+        <v>0.47389999999999999</v>
       </c>
       <c r="H18">
-        <v>0.63549999999999995</v>
+        <v>0.89659999999999995</v>
       </c>
       <c r="I18">
-        <v>0.29270000000000002</v>
+        <v>0.43580000000000002</v>
       </c>
       <c r="J18">
-        <v>0.63549999999999995</v>
+        <v>0.92179999999999995</v>
       </c>
       <c r="K18">
-        <v>0.29270000000000002</v>
+        <v>0.46689999999999998</v>
       </c>
       <c r="L18">
-        <v>0.63549999999999995</v>
+        <v>0.92100000000000004</v>
       </c>
       <c r="M18">
-        <v>0.29270000000000002</v>
+        <v>0.4632</v>
       </c>
       <c r="N18">
-        <v>0.91720000000000002</v>
+        <v>0.92110000000000003</v>
       </c>
       <c r="O18">
-        <v>0.40910000000000002</v>
+        <v>0.46970000000000001</v>
       </c>
       <c r="P18">
-        <v>0.91769999999999996</v>
+        <v>0.92090000000000005</v>
       </c>
       <c r="Q18">
-        <v>0.4093</v>
+        <v>0.47699999999999998</v>
       </c>
       <c r="R18">
-        <v>0.91769999999999996</v>
+        <v>0.91590000000000005</v>
       </c>
       <c r="S18">
-        <v>0.4093</v>
+        <v>0.42149999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
@@ -2756,58 +2756,58 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>0.72670000000000001</v>
+        <v>0.76580000000000004</v>
       </c>
       <c r="C19">
-        <v>0.60940000000000005</v>
+        <v>0.5927</v>
       </c>
       <c r="D19">
-        <v>0.87080000000000002</v>
+        <v>0.85829999999999995</v>
       </c>
       <c r="E19">
-        <v>0.43030000000000002</v>
+        <v>0.43359999999999999</v>
       </c>
       <c r="F19">
-        <v>0.87229999999999996</v>
+        <v>0.8861</v>
       </c>
       <c r="G19">
-        <v>0.43490000000000001</v>
+        <v>0.47060000000000002</v>
       </c>
       <c r="H19">
-        <v>0.63549999999999995</v>
+        <v>0.89659999999999995</v>
       </c>
       <c r="I19">
-        <v>0.29270000000000002</v>
+        <v>0.43580000000000002</v>
       </c>
       <c r="J19">
-        <v>0.63549999999999995</v>
+        <v>0.92059999999999997</v>
       </c>
       <c r="K19">
-        <v>0.29270000000000002</v>
+        <v>0.46110000000000001</v>
       </c>
       <c r="L19">
-        <v>0.63549999999999995</v>
+        <v>0.92079999999999995</v>
       </c>
       <c r="M19">
-        <v>0.29270000000000002</v>
+        <v>0.4632</v>
       </c>
       <c r="N19">
-        <v>0.91720000000000002</v>
+        <v>0.92110000000000003</v>
       </c>
       <c r="O19">
-        <v>0.40910000000000002</v>
+        <v>0.46970000000000001</v>
       </c>
       <c r="P19">
-        <v>0.91769999999999996</v>
+        <v>0.92100000000000004</v>
       </c>
       <c r="Q19">
-        <v>0.4093</v>
+        <v>0.47560000000000002</v>
       </c>
       <c r="R19">
-        <v>0.91769999999999996</v>
+        <v>0.91590000000000005</v>
       </c>
       <c r="S19">
-        <v>0.4093</v>
+        <v>0.42149999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
@@ -2815,58 +2815,58 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>0.72670000000000001</v>
+        <v>0.76639999999999997</v>
       </c>
       <c r="C20">
-        <v>0.60940000000000005</v>
+        <v>0.59289999999999998</v>
       </c>
       <c r="D20">
-        <v>0.87080000000000002</v>
+        <v>0.85829999999999995</v>
       </c>
       <c r="E20">
-        <v>0.43030000000000002</v>
+        <v>0.43359999999999999</v>
       </c>
       <c r="F20">
-        <v>0.87229999999999996</v>
+        <v>0.8861</v>
       </c>
       <c r="G20">
-        <v>0.43490000000000001</v>
+        <v>0.47060000000000002</v>
       </c>
       <c r="H20">
-        <v>0.63549999999999995</v>
+        <v>0.89659999999999995</v>
       </c>
       <c r="I20">
-        <v>0.29270000000000002</v>
+        <v>0.43580000000000002</v>
       </c>
       <c r="J20">
-        <v>0.63549999999999995</v>
+        <v>0.92110000000000003</v>
       </c>
       <c r="K20">
-        <v>0.29270000000000002</v>
+        <v>0.45750000000000002</v>
       </c>
       <c r="L20">
-        <v>0.63549999999999995</v>
+        <v>0.92079999999999995</v>
       </c>
       <c r="M20">
-        <v>0.29270000000000002</v>
+        <v>0.4632</v>
       </c>
       <c r="N20">
-        <v>0.91720000000000002</v>
+        <v>0.91990000000000005</v>
       </c>
       <c r="O20">
-        <v>0.40910000000000002</v>
+        <v>0.46949999999999997</v>
       </c>
       <c r="P20">
-        <v>0.91769999999999996</v>
+        <v>0.92100000000000004</v>
       </c>
       <c r="Q20">
-        <v>0.4093</v>
+        <v>0.47560000000000002</v>
       </c>
       <c r="R20">
-        <v>0.91769999999999996</v>
+        <v>0.91590000000000005</v>
       </c>
       <c r="S20">
-        <v>0.4093</v>
+        <v>0.42149999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
@@ -2874,58 +2874,58 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>0.72670000000000001</v>
+        <v>0.76639999999999997</v>
       </c>
       <c r="C21">
-        <v>0.60940000000000005</v>
+        <v>0.59289999999999998</v>
       </c>
       <c r="D21">
-        <v>0.87080000000000002</v>
+        <v>0.85829999999999995</v>
       </c>
       <c r="E21">
-        <v>0.43030000000000002</v>
+        <v>0.43359999999999999</v>
       </c>
       <c r="F21">
-        <v>0.87229999999999996</v>
+        <v>0.8861</v>
       </c>
       <c r="G21">
-        <v>0.43490000000000001</v>
+        <v>0.47060000000000002</v>
       </c>
       <c r="H21">
-        <v>0.63549999999999995</v>
+        <v>0.89659999999999995</v>
       </c>
       <c r="I21">
-        <v>0.29270000000000002</v>
+        <v>0.43580000000000002</v>
       </c>
       <c r="J21">
-        <v>0.63549999999999995</v>
+        <v>0.92110000000000003</v>
       </c>
       <c r="K21">
-        <v>0.29270000000000002</v>
+        <v>0.45750000000000002</v>
       </c>
       <c r="L21">
-        <v>0.63549999999999995</v>
+        <v>0.92079999999999995</v>
       </c>
       <c r="M21">
-        <v>0.29270000000000002</v>
+        <v>0.4632</v>
       </c>
       <c r="N21">
-        <v>0.91720000000000002</v>
+        <v>0.92069999999999996</v>
       </c>
       <c r="O21">
-        <v>0.40910000000000002</v>
+        <v>0.46989999999999998</v>
       </c>
       <c r="P21">
-        <v>0.91769999999999996</v>
+        <v>0.92090000000000005</v>
       </c>
       <c r="Q21">
-        <v>0.4093</v>
+        <v>0.47699999999999998</v>
       </c>
       <c r="R21">
-        <v>0.91769999999999996</v>
+        <v>0.91590000000000005</v>
       </c>
       <c r="S21">
-        <v>0.4093</v>
+        <v>0.42149999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
@@ -2934,27 +2934,27 @@
       </c>
       <c r="B22">
         <f>MAX(B2:B21)</f>
-        <v>0.88009999999999999</v>
+        <v>0.88419999999999999</v>
       </c>
       <c r="D22">
         <f t="shared" ref="D22" si="0">MAX(D2:D21)</f>
-        <v>0.88580000000000003</v>
+        <v>0.89659999999999995</v>
       </c>
       <c r="F22">
         <f t="shared" ref="F22" si="1">MAX(F2:F21)</f>
-        <v>0.89890000000000003</v>
+        <v>0.9093</v>
       </c>
       <c r="H22">
         <f t="shared" ref="H22" si="2">MAX(H2:H21)</f>
-        <v>0.90620000000000001</v>
+        <v>0.92930000000000001</v>
       </c>
       <c r="J22">
         <f t="shared" ref="J22" si="3">MAX(J2:J21)</f>
-        <v>0.90349999999999997</v>
+        <v>0.92179999999999995</v>
       </c>
       <c r="L22">
         <f t="shared" ref="L22" si="4">MAX(L2:L21)</f>
-        <v>0.90349999999999997</v>
+        <v>0.92359999999999998</v>
       </c>
       <c r="N22">
         <f t="shared" ref="N22" si="5">MAX(N2:N21)</f>
@@ -2962,16 +2962,17 @@
       </c>
       <c r="P22">
         <f t="shared" ref="P22" si="6">MAX(P2:P21)</f>
-        <v>0.92090000000000005</v>
+        <v>0.92120000000000002</v>
       </c>
       <c r="R22">
         <f t="shared" ref="R22" si="7">MAX(R2:R21)</f>
-        <v>0.92159999999999997</v>
+        <v>0.92210000000000003</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>